--- a/speedup-analyse-static.xlsx
+++ b/speedup-analyse-static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\user\CLionProjects\fh-ppr-mandelbrot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABEC170-9D82-4E0B-B520-FB4681A67AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D7D3A-0F0F-4ACF-96E6-41926E4910F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4515" windowWidth="28800" windowHeight="11505" xr2:uid="{63552AAE-C5A2-4ED5-98F5-496E86A19847}"/>
+    <workbookView xWindow="735" yWindow="1185" windowWidth="26400" windowHeight="12120" xr2:uid="{63552AAE-C5A2-4ED5-98F5-496E86A19847}"/>
   </bookViews>
   <sheets>
     <sheet name="maxIterations = 100" sheetId="2" r:id="rId1"/>
@@ -7720,20 +7720,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE43085-64B6-48E6-B0EF-CBACF6AF9272}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="18.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.41820400000000002</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>7.7881699999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>0.41642699999999999</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>6.61437E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>0.42340100000000003</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>6.7905599999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>0.41617900000000002</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>8.0698500000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>0.42317900000000003</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>6.9445099999999996E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0.41570800000000002</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>6.2895000000000006E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>0.424902</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>6.6846299999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>0.42150500000000002</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>7.0081400000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>0.41736099999999998</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>6.5825999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>0.42297200000000001</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>6.7080600000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>0.41473599999999999</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>6.8689E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>0.426954</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>8.1670800000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>0.41945700000000002</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>6.8022600000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>0.42557200000000001</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>6.5153600000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>0.41663800000000001</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>6.3564099999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>0.41614400000000001</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>7.3496599999999995E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>0.42476000000000003</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>7.4298600000000006E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>0.41739900000000002</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>7.2657399999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>0.42401499999999998</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>6.29855E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>0.41494399999999998</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>6.6688300000000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>0.41632000000000002</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>6.4134300000000005E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>0.43571399999999999</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>7.07285E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>0.41912700000000003</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>7.3114899999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>0.42618899999999998</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>8.5167699999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>0.41649599999999998</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>7.5589900000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>0.42372500000000002</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>6.9189799999999996E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>0.41885699999999998</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>6.5983899999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>0.41912199999999999</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>6.5316200000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>0.42667699999999997</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>6.3106099999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>0.42579299999999998</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>6.4040700000000006E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>0.42421900000000001</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>6.1275999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>0.41773100000000002</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>6.6352700000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>0.42783399999999999</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>6.5406900000000004E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>0.41640500000000003</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>6.5098900000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>0.41374300000000003</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>7.0219599999999993E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>0.43126799999999998</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>6.9944300000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>0.41757499999999997</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>6.9748500000000005E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>0.42836400000000002</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>6.7214700000000002E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>0.41849999999999998</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>7.1466199999999994E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>0.42818000000000001</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>6.7482100000000003E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>0.41669800000000001</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>6.9479700000000005E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>0.41958600000000001</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>6.5885100000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>0.42711300000000002</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>6.4605700000000002E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>0.41871999999999998</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>6.6188399999999994E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>0.42546800000000001</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>7.4553800000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>0.41502699999999998</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>6.4650399999999997E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>0.42792999999999998</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>6.6537899999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>0.41615000000000002</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>6.4539100000000002E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>0.41479300000000002</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>6.2056800000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>0.430031</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>6.5903500000000004E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>0.41498000000000002</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>6.8276600000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>0.43006499999999998</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>7.3792999999999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>0.41737299999999999</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>6.8846900000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>0.41644700000000001</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>7.3692099999999996E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>0.42538999999999999</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>6.6275299999999995E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>0.41820400000000002</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>6.2904699999999994E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>0.42411599999999999</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>6.2998299999999993E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>0.421767</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>6.0760799999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>0.42578199999999999</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>6.5287899999999996E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>0.41902299999999998</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>6.4665E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>0.420788</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>6.7232299999999995E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>0.424954</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>7.3194300000000004E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>0.42070400000000002</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>6.5059800000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>0.42518600000000001</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>7.5040399999999993E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>0.42010700000000001</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>7.8688499999999995E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>0.42363400000000001</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>6.5797700000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>0.42007699999999998</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>7.1081099999999994E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>0.42245500000000002</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>6.9469000000000003E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>0.42158200000000001</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>7.6038400000000006E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>0.41908200000000001</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>6.6891900000000004E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>0.42455399999999999</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>7.6631000000000005E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>0.419933</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>6.5164600000000003E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>0.41759499999999999</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>7.3080699999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>0.42638799999999999</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>6.4055500000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>0.41992600000000002</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>7.0496100000000006E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>0.425869</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>6.9216899999999998E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>0.41903699999999999</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>6.3837900000000003E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>0.420595</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>7.2848399999999994E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>0.42099999999999999</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>6.6987099999999994E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>0.41769000000000001</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>6.4574999999999994E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>0.41856199999999999</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>7.08067E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>0.42753400000000003</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>6.7356700000000005E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>0.42092400000000002</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>7.3200000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>0.417491</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>7.3011099999999995E-2</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>0.42211399999999999</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>6.4157400000000003E-2</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>0.41803800000000002</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>6.8143700000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>0.41712100000000002</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>6.2057300000000003E-2</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>0.42672399999999999</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>6.27336E-2</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>0.42016999999999999</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>6.4644300000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>0.42633700000000002</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>7.2042999999999996E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>0.42181999999999997</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>6.0259E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>0.42571999999999999</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>6.5720500000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>0.419381</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>6.4491000000000007E-2</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>0.41965999999999998</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>7.2056999999999996E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>0.42881799999999998</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>6.6502599999999995E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>0.41790100000000002</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>6.5310699999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>0.42490899999999998</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>6.9061300000000006E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>0.42003000000000001</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>7.4543100000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>0.421018</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>7.2842900000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>0.42538100000000001</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>6.4934800000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.65">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>6.8437766000000025E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -12992,13 +12992,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="19.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -13049,7 +13049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.57978</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>0.261965</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>1.5749200000000001</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>0.23707800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>1.58077</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>0.25367800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1.58012</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>0.286107</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1.5831999999999999</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>0.23896200000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>1.57541</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>0.260384</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>1.5849599999999999</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>0.23299800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1.58829</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>0.24237400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>1.5848899999999999</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>0.241756</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>1.58484</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>0.23311000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>1.5933900000000001</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>0.28448400000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>1.5899799999999999</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>0.23872599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>1.5797000000000001</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>0.22508300000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>1.5785800000000001</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>0.22156400000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>1.58433</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>0.24141000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>1.5799399999999999</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>0.23203099999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>1.58439</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>0.25084200000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>1.5901799999999999</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>0.22267200000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>1.5805199999999999</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>0.23994799999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>1.5827800000000001</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>0.232515</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>1.5875999999999999</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>0.29136400000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>1.58382</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>0.27925499999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>1.58362</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>0.29410700000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>1.5811999999999999</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>0.24193400000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>1.58023</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>0.27276400000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>1.5850500000000001</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>0.26803399999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>1.5899799999999999</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>0.26908599999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>1.58484</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>0.239539</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>1.5919099999999999</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>0.26789200000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>1.5787500000000001</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>0.22339300000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>1.5898000000000001</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>0.22476499999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>1.5788599999999999</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>0.24219199999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>1.58443</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>0.23370299999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>1.5779399999999999</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>0.23411599999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>1.57711</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>0.24319299999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>1.5842400000000001</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>0.27772999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>1.57443</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>0.239813</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>1.5811200000000001</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>0.28555000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>1.58528</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>0.27755800000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>1.5871599999999999</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>0.25023600000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>1.5872200000000001</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>0.236764</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>1.59205</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>0.24523</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>1.5815600000000001</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>0.23610999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>1.5742</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>0.277308</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>1.58426</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>0.27389200000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>1.57457</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>0.267625</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>1.5751200000000001</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>0.24093400000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>1.5810599999999999</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>0.269957</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>1.5875699999999999</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>0.26225700000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>1.58646</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>0.28750999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>1.5830900000000001</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0.23196700000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>1.5785100000000001</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>0.26881300000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>1.58786</v>
       </c>
@@ -15752,7 +15752,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1.57911</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>0.242816</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1.5837699999999999</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>0.269121</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1.5764400000000001</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>0.26435700000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1.5769200000000001</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>0.231623</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1.5834699999999999</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>0.241984</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>1.5765199999999999</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>0.24764600000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>1.5762499999999999</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>0.27485300000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>1.58318</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>0.23585200000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>1.5851500000000001</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>0.24016000000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1.57386</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>0.26427</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1.57728</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>0.23672299999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>1.58324</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>0.25031700000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>1.58873</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>0.24832199999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1.5847800000000001</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>0.23422799999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>1.5796600000000001</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>0.238757</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>1.5832999999999999</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>0.28693999999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>1.5834600000000001</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>0.26967000000000002</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1.5715699999999999</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>0.29004000000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>1.57681</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>0.236011</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>1.57514</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>0.23819000000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1.57352</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>0.24471300000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1.57196</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>0.24035100000000001</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1.58029</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>0.27248099999999997</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>1.58402</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>0.21984799999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>1.5721700000000001</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>0.238092</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1.58134</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>0.26606200000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>1.5700700000000001</v>
       </c>
@@ -17102,7 +17102,7 @@
         <v>0.28400799999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>1.57785</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>0.22948199999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>1.57935</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>0.25267299999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1.57711</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>0.27144299999999999</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>1.5833999999999999</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>0.25570500000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>1.5785800000000001</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>0.26772699999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>1.57805</v>
       </c>
@@ -17402,7 +17402,7 @@
         <v>0.22405</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1.57887</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>0.240928</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>1.5879700000000001</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>0.22976099999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>1.57508</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>0.28184900000000002</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>1.58144</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>0.24144299999999999</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1.5814299999999999</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>0.26918700000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>1.57447</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>0.230099</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>1.57524</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>0.27085399999999998</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>1.58558</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>0.245673</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1.5838300000000001</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>0.26355600000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>1.5831</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>0.261183</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>1.57378</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>0.28700399999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>1.58131</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>0.26968500000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>1.57491</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>0.23963400000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>1.5804100000000001</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>0.26893099999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.65">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>0.25304580000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -18257,13 +18257,13 @@
       <selection pane="bottomLeft" activeCell="P131" sqref="P131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="19.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -18314,7 +18314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>3.0225900000000001</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>0.50943400000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>3.0130599999999998</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>0.44874799999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>3.0162599999999999</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>0.49829299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>3.0178799999999999</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>0.44230599999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>3.0124499999999999</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>0.51021399999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>3.0136699999999998</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>0.49776300000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3.0130499999999998</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>0.51173800000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>3.0125000000000002</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>0.48270800000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>3.0004400000000002</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>0.45376</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>3.0098099999999999</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>0.49526599999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>3.0114100000000001</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>0.444633</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>3.0005799999999998</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>0.46570899999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>3.0014699999999999</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>0.44267200000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>3.0116900000000002</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>0.43813999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>3.0259900000000002</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>0.48432799999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>3.0169600000000001</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>0.447438</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>3.0155699999999999</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>0.44649100000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>3.0129700000000001</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>0.533192</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>3.0219</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>0.448959</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>3.0330599999999999</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>0.52353000000000005</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>3.0240800000000001</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>0.44148599999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>3.0167899999999999</v>
       </c>
@@ -19467,7 +19467,7 @@
         <v>0.43977899999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>3.0141</v>
       </c>
@@ -19517,7 +19517,7 @@
         <v>0.449241</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>3.0285199999999999</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>0.45339400000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>3.0336400000000001</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>0.50476600000000005</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>3.0208200000000001</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>0.46588200000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>3.0245199999999999</v>
       </c>
@@ -19717,7 +19717,7 @@
         <v>0.50005100000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>3.01268</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>0.46069300000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>3.0131600000000001</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>0.48053800000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>3.0072899999999998</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>0.44745299999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>3.0224799999999998</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>0.49787199999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>3.03024</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>0.48096699999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>3.0181300000000002</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>0.51387799999999995</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>3.0168200000000001</v>
       </c>
@@ -20067,7 +20067,7 @@
         <v>0.43457600000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>3.0091700000000001</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>0.45332299999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>3.02142</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>0.51639400000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>3.0157600000000002</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>0.50002000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>3.0335999999999999</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>0.48773100000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>3.0228299999999999</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>0.47556799999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>3.0183900000000001</v>
       </c>
@@ -20367,7 +20367,7 @@
         <v>0.460142</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>3.0232299999999999</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>0.44322699999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>3.0289000000000001</v>
       </c>
@@ -20467,7 +20467,7 @@
         <v>0.44225999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>3.0229499999999998</v>
       </c>
@@ -20517,7 +20517,7 @@
         <v>0.45964700000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>3.03111</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>0.44061</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>3.0236800000000001</v>
       </c>
@@ -20617,7 +20617,7 @@
         <v>0.54593199999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>3.01694</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>0.51232500000000003</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>3.0154700000000001</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>0.45032699999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>3.01966</v>
       </c>
@@ -20767,7 +20767,7 @@
         <v>0.47442400000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>3.0138500000000001</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>0.458731</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>3.0049899999999998</v>
       </c>
@@ -20867,7 +20867,7 @@
         <v>0.48727999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>3.0180899999999999</v>
       </c>
@@ -20917,7 +20917,7 @@
         <v>0.45168000000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>3.0108999999999999</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>0.46360499999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>3.0061300000000002</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>0.51748799999999995</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>3.0136500000000002</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>0.58938699999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>3.0075699999999999</v>
       </c>
@@ -21117,7 +21117,7 @@
         <v>0.545848</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>3.01694</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>0.60243000000000002</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>3.0041899999999999</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>0.45240599999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>3.02162</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>0.50294399999999995</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>3.0039199999999999</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>0.52662299999999995</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>3.01397</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>0.52790599999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>3.0125600000000001</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>0.44629400000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>3.0065400000000002</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>0.49932599999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>3.0125299999999999</v>
       </c>
@@ -21517,7 +21517,7 @@
         <v>0.44155800000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>3.0196800000000001</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>0.51091600000000004</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>3.03315</v>
       </c>
@@ -21617,7 +21617,7 @@
         <v>0.446326</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>3.01661</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>0.47307700000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>3.0161500000000001</v>
       </c>
@@ -21717,7 +21717,7 @@
         <v>0.446326</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>3.0229300000000001</v>
       </c>
@@ -21767,7 +21767,7 @@
         <v>0.52175499999999997</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>3.01797</v>
       </c>
@@ -21817,7 +21817,7 @@
         <v>0.51202700000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>3.0113599999999998</v>
       </c>
@@ -21867,7 +21867,7 @@
         <v>0.47886899999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>3.0154999999999998</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>0.48451899999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>3.0135999999999998</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>0.52200599999999997</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>3.0266999999999999</v>
       </c>
@@ -22017,7 +22017,7 @@
         <v>0.49273099999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>3.0162</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>0.43651200000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>3.0247899999999999</v>
       </c>
@@ -22117,7 +22117,7 @@
         <v>0.450075</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>3.02223</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>0.43165900000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>3.0169100000000002</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>0.46410800000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>3.02034</v>
       </c>
@@ -22267,7 +22267,7 @@
         <v>0.464391</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>3.0320100000000001</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>0.44106099999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>3.0193400000000001</v>
       </c>
@@ -22367,7 +22367,7 @@
         <v>0.442884</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>3.0097800000000001</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>0.44573400000000002</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>3.0356900000000002</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>0.540686</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>3.0154399999999999</v>
       </c>
@@ -22517,7 +22517,7 @@
         <v>0.44171300000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>3.01505</v>
       </c>
@@ -22567,7 +22567,7 @@
         <v>0.48261999999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>3.0266299999999999</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>0.50930799999999998</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>3.0156000000000001</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>0.52676599999999996</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>3.0195699999999999</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>0.44164199999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>3.0181300000000002</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>0.45101400000000003</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>3.0264099999999998</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>0.42919099999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>3.0143499999999999</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>0.44441199999999997</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>3.0152999999999999</v>
       </c>
@@ -22917,7 +22917,7 @@
         <v>0.462032</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>3.0133299999999998</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>0.46103</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>3.01336</v>
       </c>
@@ -23017,7 +23017,7 @@
         <v>0.46953899999999998</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>3.02597</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>0.447154</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>3.0192800000000002</v>
       </c>
@@ -23117,7 +23117,7 @@
         <v>0.45919199999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>3.0148999999999999</v>
       </c>
@@ -23167,7 +23167,7 @@
         <v>0.55971099999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>3.0142500000000001</v>
       </c>
@@ -23217,7 +23217,7 @@
         <v>0.46173700000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>3.0058600000000002</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>0.53720500000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>3.0066899999999999</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>0.45778400000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>3.00509</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>0.47799700000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="21" x14ac:dyDescent="0.65">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>0.47797043</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
